--- a/data_demo/cadastrão.xlsx
+++ b/data_demo/cadastrão.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3886AD3-565C-48CF-AFC1-C03A00A9E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F21997-3D72-4689-B51B-AAC17C552486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>centro de resultado - código</t>
   </si>
@@ -39,25 +39,13 @@
     <t xml:space="preserve"> 009-90-7386</t>
   </si>
   <si>
-    <t>50-654.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 029-22-1806</t>
   </si>
   <si>
-    <t>14-6271</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 031-89-3659</t>
   </si>
   <si>
-    <t>919..883</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 051-76-8504</t>
-  </si>
-  <si>
-    <t>710$$350</t>
   </si>
   <si>
     <t xml:space="preserve"> 063-13-3242</t>
@@ -532,7 +520,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,37 +537,37 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>506542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>146271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>919883</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>710350</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>285181</v>
@@ -587,7 +575,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>275598</v>
@@ -595,7 +583,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>243162</v>
@@ -603,7 +591,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>386258</v>
@@ -611,7 +599,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>780279</v>
@@ -619,7 +607,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>373295</v>
@@ -627,7 +615,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>252439</v>
@@ -635,7 +623,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>814316</v>
@@ -643,7 +631,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>424212</v>
@@ -651,7 +639,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>306612</v>
@@ -659,7 +647,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>433989</v>
@@ -667,7 +655,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>408979</v>
@@ -675,7 +663,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>521884</v>
@@ -683,7 +671,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>904695</v>
@@ -691,7 +679,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>578141</v>
@@ -699,7 +687,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>923622</v>
@@ -707,7 +695,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>492361</v>
@@ -715,7 +703,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>108690</v>
@@ -723,7 +711,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>917997</v>
@@ -731,7 +719,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>853862</v>
@@ -739,7 +727,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>634113</v>
@@ -747,7 +735,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>577572</v>
@@ -755,7 +743,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>805724</v>
@@ -763,7 +751,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>146174</v>
@@ -771,7 +759,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>753026</v>
@@ -779,7 +767,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>996814</v>
@@ -787,7 +775,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>341045</v>
@@ -795,7 +783,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>398551</v>
@@ -803,7 +791,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>700253</v>
@@ -811,7 +799,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>808711</v>
@@ -819,7 +807,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>613250</v>
@@ -827,7 +815,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>872808</v>
@@ -835,7 +823,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>535013</v>
@@ -843,7 +831,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>261576</v>
@@ -851,7 +839,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>954876</v>
@@ -859,7 +847,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>854930</v>
@@ -867,7 +855,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>525917</v>
@@ -875,7 +863,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>924328</v>
@@ -883,7 +871,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>638208</v>
@@ -891,7 +879,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>110999</v>
